--- a/sam.xlsx
+++ b/sam.xlsx
@@ -956,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584BC1FE-B58F-4FFB-891A-2C0503A82770}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:I19"/>
@@ -1024,6 +1024,9 @@
       <c r="I3" t="n">
         <v>78507.0</v>
       </c>
+      <c r="J3" t="n">
+        <v>164864.7</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1049,6 +1052,9 @@
       <c r="I4" t="n">
         <v>3443.2200000000003</v>
       </c>
+      <c r="J4" t="n">
+        <v>7230.762000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1074,6 +1080,9 @@
       <c r="I5" t="n">
         <v>7142.59</v>
       </c>
+      <c r="J5" t="n">
+        <v>14999.439</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1099,6 +1108,9 @@
       <c r="I6" t="n">
         <v>171.0</v>
       </c>
+      <c r="J6" t="n">
+        <v>359.1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1124,6 +1136,9 @@
       <c r="I7" t="n">
         <v>233.79999999999998</v>
       </c>
+      <c r="J7" t="n">
+        <v>490.97999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1149,6 +1164,9 @@
       <c r="I8" t="n">
         <v>19616.52</v>
       </c>
+      <c r="J8" t="n">
+        <v>41194.692</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1174,6 +1192,9 @@
       <c r="I9" t="n">
         <v>8956.23</v>
       </c>
+      <c r="J9" t="n">
+        <v>18808.083</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1199,6 +1220,9 @@
       <c r="I10" t="n">
         <v>22164.239999999998</v>
       </c>
+      <c r="J10" t="n">
+        <v>46544.903999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1224,6 +1248,9 @@
       <c r="I11" t="n">
         <v>4691.81</v>
       </c>
+      <c r="J11" t="n">
+        <v>9852.801000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1249,6 +1276,9 @@
       <c r="I12" t="n">
         <v>12834.5</v>
       </c>
+      <c r="J12" t="n">
+        <v>26952.45</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1274,6 +1304,9 @@
       <c r="I13" t="n">
         <v>5087.18</v>
       </c>
+      <c r="J13" t="n">
+        <v>10683.078000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1299,6 +1332,9 @@
       <c r="I14" t="n">
         <v>8899.52</v>
       </c>
+      <c r="J14" t="n">
+        <v>18688.992000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -1324,6 +1360,9 @@
       <c r="I15" t="n">
         <v>50240.0</v>
       </c>
+      <c r="J15" t="n">
+        <v>105504.0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1349,6 +1388,9 @@
       <c r="I16" t="n">
         <v>20854.05</v>
       </c>
+      <c r="J16" t="n">
+        <v>43793.505</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -1374,6 +1416,9 @@
       <c r="I17" t="n">
         <v>10395.0</v>
       </c>
+      <c r="J17" t="n">
+        <v>21829.5</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1399,6 +1444,9 @@
       <c r="I18" t="n">
         <v>5391.96</v>
       </c>
+      <c r="J18" t="n">
+        <v>11323.116</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -1423,6 +1471,9 @@
       </c>
       <c r="I19" t="n">
         <v>16432.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>34507.368</v>
       </c>
     </row>
     <row r="20">
